--- a/backend/data/emails.xlsx
+++ b/backend/data/emails.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexfarouz\Desktop\projects\TrackA_HealthHack\backend\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexfarouz\Desktop\projects\medgenie-ai\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3285B04F-0B7A-4602-BCCB-D8C44FAED862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885B0C29-498D-49F6-8319-ED58FA662EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,13 +438,13 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
